--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject8.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject8.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.61421990307814167</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0</v>
+        <v>0.6817639053048079</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -278,7 +278,7 @@
         <v>0</v>
       </c>
       <c r="AY1" s="0">
-        <v>0</v>
+        <v>0.64123794914225773</v>
       </c>
       <c r="AZ1" s="0">
         <v>0</v>
@@ -320,7 +320,7 @@
         <v>0</v>
       </c>
       <c r="BM1" s="0">
-        <v>0</v>
+        <v>0.69746119416429053</v>
       </c>
       <c r="BN1" s="0">
         <v>0</v>
@@ -329,21 +329,21 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.57554942462093295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.53625041568960441</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.70150592916013355</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.90830103943611773</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.86420906889003479</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.98146241393940137</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.80136870706702823</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>0</v>
+        <v>0.76133676504319614</v>
       </c>
     </row>
     <row r="4">
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.88726834627671636</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.50712557090072319</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.76357854644672707</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0</v>
+        <v>0.60661264721659136</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="0">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>0</v>
+        <v>0.70016799986766254</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.77554480378818935</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.93465410260925785</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.86373085150892903</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.61895178425831632</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -1170,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.87156438617613929</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.89960184831337064</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0</v>
+        <v>0.85350170751774446</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>0</v>
+        <v>0.78330067946174653</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.51306879708537079</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.50678144401351011</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.82707861019934814</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.74727379133009952</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.56076756164279884</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.69809760947548782</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="0">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>0</v>
+        <v>0.75001929836060333</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.87281389961957312</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.76094905744589547</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.59840839514005151</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.63894502880019233</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.72131183503423735</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.98608819431701589</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.73128215729039181</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0</v>
+        <v>0.94581269786147293</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2212,25 +2212,25 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.88232729915159047</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.63386444881966275</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.83994372470714618</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.75788741127384085</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="0">
         <v>0</v>
@@ -2421,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.62169939550766351</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.61763396074275811</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.69230276786967182</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>0</v>
+        <v>0.93031775678043394</v>
       </c>
       <c r="U12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="0">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="0">
-        <v>0</v>
+        <v>0.5964433309948296</v>
       </c>
       <c r="BK12" s="0">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.92349946035028219</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.54517164809683361</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.86629540424650986</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.90468213643188566</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AV13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>0</v>
+        <v>0.53670872785283241</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0</v>
+        <v>0.9972380637559124</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.95069560657070107</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.70502926210401873</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.63004519202025377</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -3039,28 +3039,28 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0</v>
+        <v>0.95293717377476161</v>
       </c>
       <c r="K15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.56184422049186322</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.55742213892453063</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0</v>
+        <v>0.57111735104246697</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.79508691945683507</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.97153779891775516</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.68778227148543114</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.75525426448547417</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.89277813937436701</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.82595360544068663</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.89172492603551134</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.71541937331647854</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.72216897486564513</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.82606071714919538</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Z18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="0">
         <v>0</v>
       </c>
       <c r="AB18" s="0">
-        <v>0</v>
+        <v>0.99031309130410627</v>
       </c>
       <c r="AC18" s="0">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="0">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.61920920963837833</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.56280544714728453</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.61532564114832933</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.6455204232336712</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>0</v>
+        <v>0.6917112062339773</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.63821081034464289</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.88699716393286177</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.84190048220305858</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.56471722735886543</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="BA20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="0">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>0.51121586316773948</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.72622316098563311</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.6456156148572878</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.88135783774130549</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.70805776168685719</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.86088596908055803</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.73133663313606867</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0</v>
+        <v>0.86819037827862955</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.65072029690547928</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.64389098996946403</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.80820376435728847</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.78266478928010264</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.5567592684880649</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.6886657405096932</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.61392427080794731</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.92237537760980737</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.90130560059446463</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.99739590685182111</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.57488779157786007</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.75330945699103558</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>0</v>
+        <v>0.86149170568504285</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -5320,16 +5320,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>0</v>
+        <v>0.82751209928013481</v>
       </c>
       <c r="P26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="0">
         <v>0</v>
       </c>
       <c r="R26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="0">
         <v>0</v>
@@ -5347,22 +5347,22 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.84975619510817912</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.70761930348990942</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.97997326339831414</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0</v>
+        <v>0.57818797720853909</v>
       </c>
     </row>
     <row r="27">
@@ -5556,22 +5556,22 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.52638058828491507</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.95270449740916252</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.89345296218216619</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.66663861396601021</v>
       </c>
       <c r="AD27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP27" s="0">
         <v>0</v>
@@ -5738,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="0">
-        <v>0</v>
+        <v>0.7701354372387601</v>
       </c>
       <c r="S28" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.76149815922014019</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.63837007654023803</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5971,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.79630293788529483</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.65057023388677027</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0</v>
+        <v>0.65946783627148031</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="AV29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="0">
         <v>0</v>
@@ -6180,22 +6180,22 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.68223902156791782</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.97354279412868627</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.56127327530911875</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.55645678268028775</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.7822177638907426</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.52372454981324923</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.62387595576957</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.67139363662681206</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.65553528334124345</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.70464620259127331</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.79662372024757044</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AU32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="0">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.92803643494449151</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.76530985462116985</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.60314634494255182</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.63381594755966042</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="AM33" s="0">
-        <v>0</v>
+        <v>0.89456117994205209</v>
       </c>
       <c r="AN33" s="0">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="BL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.79336713459240615</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.92439249344571572</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.85358708561320407</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.97670505172092792</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0</v>
+        <v>0.52642796532147795</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.813721992789602</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.77757337816504668</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="BD35" s="0">
-        <v>0</v>
+        <v>0.57379045894667791</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.53678052834600065</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.74324140698596119</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>0</v>
+        <v>0.55840334765217037</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.66562418203806006</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.51126327598834564</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.53496186007695368</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="AV37" s="0">
-        <v>0</v>
+        <v>0.8539461082645311</v>
       </c>
       <c r="AW37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0</v>
+        <v>0.84877406955992862</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.85459500218770379</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.64752593053895346</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7951,12 +7951,12 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0</v>
+        <v>0.88496336027172473</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0</v>
+        <v>0.91207723270377083</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="0">
-        <v>0</v>
+        <v>0.70948317835894104</v>
       </c>
       <c r="AH39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.84268981671079968</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8183,13 +8183,13 @@
         <v>0</v>
       </c>
       <c r="H40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0">
         <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.69498478526588259</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.72129219624946594</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.50433486050522802</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.96554568291360066</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.98041259761070343</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.823127290856706</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.71471198051966534</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.55697014223767982</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.64893784132402355</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.82807666247603473</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0</v>
+        <v>0.57720293532671973</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8733,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0</v>
+        <v>0.52699738008014974</v>
       </c>
       <c r="BC42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>0</v>
+        <v>0.79492134302630402</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.70672253956210129</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.77698063169542997</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.78299406345503086</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.61822238227090542</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0</v>
+        <v>0.8743955675273688</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.8069610664236303</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.69802723692169399</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.60375935648623213</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.58166041329344664</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>0</v>
+        <v>0.82453856559266203</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.85574572542465077</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.96362102581137909</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.66652843960789265</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.76937192501929275</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.92699137092526762</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.94248361230242994</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.98677564083008718</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.52605280895280337</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO46" s="0">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0</v>
+        <v>0.76478472193678049</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.68893600397804988</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.76231870842197291</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.52160755122664959</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0</v>
+        <v>0.79981081052323977</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -9945,16 +9945,16 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.63411160145046086</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.68279524820257287</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.86060584509746307</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="BD48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE48" s="0">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.58543367701199478</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.6429951188603158</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.67760024759991611</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10366,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.53203451815257452</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.72733203469710894</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.54833840586546223</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0</v>
+        <v>0.59426845543197859</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.71341556693495756</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.82694533720475882</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.85157023808742882</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.86942522457044213</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10781,16 +10781,16 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.70802970914185803</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.60739053029350365</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.53707182874333093</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10805,13 +10805,13 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
       </c>
       <c r="BH52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI52" s="0">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>0</v>
+        <v>0.51557459048862975</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>0</v>
+        <v>0.92131325770011241</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="0">
-        <v>0</v>
+        <v>0.83929361797186297</v>
       </c>
       <c r="N53" s="0">
         <v>0</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="0">
         <v>0</v>
@@ -10990,16 +10990,16 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.52031839631651755</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.70047811700970386</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.74567687142036942</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>0</v>
+        <v>0.95076580913580788</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.56753425543262059</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.84314274087325103</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11411,16 +11411,16 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.55864151596187372</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.86959165422353268</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>0</v>
+        <v>0.9650919400292941</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.93673785290522349</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.6312430020539006</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.87521823345923877</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.88268205564619628</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0</v>
+        <v>0.85542970316889733</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.72834069590842221</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.69568479811132355</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.7652410246812702</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.70867621330468755</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.89877788693486793</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.62790157065639796</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.97027991569482386</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="0">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0</v>
+        <v>0.80713192165588632</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.94489083890559711</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.70890245452385325</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="0">
-        <v>0</v>
+        <v>0.94572242805476259</v>
       </c>
       <c r="AK60" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0</v>
+        <v>0.80174384005303034</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AZ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="0">
         <v>0</v>
@@ -12453,16 +12453,16 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.77301944795430866</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.5624894873577142</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.61031200645934081</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.9930800041197998</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.52455322719001241</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.8610657454149393</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>0</v>
+        <v>0.98477671680416479</v>
       </c>
       <c r="M62" s="0">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>0</v>
+        <v>0.95522869597772808</v>
       </c>
       <c r="AQ62" s="0">
         <v>0</v>
@@ -12874,16 +12874,16 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.60239491834565095</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="0">
-        <v>0</v>
+        <v>0.51720260032968501</v>
       </c>
       <c r="BA63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.89826722009833193</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.96785843958027629</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.88282375501624277</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13196,13 +13196,13 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
       </c>
       <c r="AG64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="0">
         <v>0</v>
@@ -13283,25 +13283,25 @@
         <v>0</v>
       </c>
       <c r="BH64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.52318992939531273</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.93260502049589133</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.8141706126295376</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0</v>
+        <v>0.84585695280622797</v>
       </c>
       <c r="B65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.64772777998416164</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.79683667610288389</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.77893362775554942</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AT66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="0">
         <v>0</v>
@@ -13707,19 +13707,19 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.68511835062050408</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.53001714950102974</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.63295749799626955</v>
       </c>
     </row>
     <row r="67">
@@ -13733,13 +13733,13 @@
         <v>0</v>
       </c>
       <c r="D67" s="0">
-        <v>0</v>
+        <v>0.73793214392535988</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0</v>
+        <v>0.6016082613061553</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13916,27 +13916,27 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.80653593475976926</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.55068170762639546</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.88954234464256587</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.7641938340251575</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>0</v>
+        <v>0.58877557675428482</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>0</v>
+        <v>0.63514680505638643</v>
       </c>
       <c r="AA68" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>0</v>
+        <v>0.9787522658676282</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.88820536520189997</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.90898041826470211</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject8.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject8.xlsx
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0.6817639053048079</v>
+        <v>0.91207723270377083</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -320,7 +320,7 @@
         <v>0</v>
       </c>
       <c r="BM1" s="0">
-        <v>0.69746119416429053</v>
+        <v>0.84585695280622797</v>
       </c>
       <c r="BN1" s="0">
         <v>0</v>
@@ -329,18 +329,18 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.57554942462093295</v>
+        <v>0.7641938340251575</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.53625041568960441</v>
+        <v>0.61421990307814167</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.70150592916013355</v>
+        <v>0.86420906889003479</v>
       </c>
       <c r="D2" s="0">
         <v>0.90830103943611773</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.88726834627671636</v>
+        <v>0.90830103943611773</v>
       </c>
       <c r="C4" s="0">
-        <v>0.50712557090072319</v>
+        <v>0.98146241393940137</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.76357854644672707</v>
+        <v>0.93465410260925785</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>0.70016799986766254</v>
+        <v>0.73793214392535988</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.77554480378818935</v>
+        <v>0.80136870706702823</v>
       </c>
       <c r="D5" s="0">
         <v>0.93465410260925785</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.86373085150892903</v>
+        <v>0.87156438617613929</v>
       </c>
       <c r="G5" s="0">
         <v>0.61895178425831632</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0.85350170751774446</v>
+        <v>0.9972380637559124</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.51306879708537079</v>
+        <v>0.61895178425831632</v>
       </c>
       <c r="F7" s="0">
-        <v>0.50678144401351011</v>
+        <v>0.89960184831337064</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0.82707861019934814</v>
       </c>
       <c r="I7" s="0">
-        <v>0.74727379133009952</v>
+        <v>0.87281389961957312</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.56076756164279884</v>
+        <v>0.82707861019934814</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.69809760947548782</v>
+        <v>0.76094905744589547</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>0.75001929836060333</v>
+        <v>0.92131325770011241</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.59840839514005151</v>
+        <v>0.72131183503423735</v>
       </c>
       <c r="K9" s="0">
-        <v>0.63894502880019233</v>
+        <v>0.88232729915159047</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0.94581269786147293</v>
+        <v>0.95293717377476161</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0.88232729915159047</v>
       </c>
       <c r="J11" s="0">
-        <v>0.63386444881966275</v>
+        <v>0.98608819431701589</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0.83994372470714618</v>
       </c>
       <c r="M11" s="0">
-        <v>0.75788741127384085</v>
+        <v>0.92349946035028219</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.62169939550766351</v>
+        <v>0.73128215729039181</v>
       </c>
       <c r="K12" s="0">
-        <v>0.61763396074275811</v>
+        <v>0.83994372470714618</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="0">
-        <v>0.5964433309948296</v>
+        <v>0.98477671680416479</v>
       </c>
       <c r="BK12" s="0">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0.92349946035028219</v>
       </c>
       <c r="L13" s="0">
-        <v>0.54517164809683361</v>
+        <v>0.69230276786967182</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.86629540424650986</v>
+        <v>0.95069560657070107</v>
       </c>
       <c r="O13" s="0">
         <v>0.90468213643188566</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>0.53670872785283241</v>
+        <v>0.83929361797186297</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0.70502926210401873</v>
       </c>
       <c r="P14" s="0">
-        <v>0.63004519202025377</v>
+        <v>0.79508691945683507</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.56184422049186322</v>
+        <v>0.90468213643188566</v>
       </c>
       <c r="N15" s="0">
-        <v>0.55742213892453063</v>
+        <v>0.70502926210401873</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.57111735104246697</v>
+        <v>0.82751209928013481</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0.97153779891775516</v>
       </c>
       <c r="R16" s="0">
-        <v>0.68778227148543114</v>
+        <v>0.89172492603551134</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.75525426448547417</v>
+        <v>0.97153779891775516</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0.89172492603551134</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.71541937331647854</v>
+        <v>0.89277813937436701</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.61920920963837833</v>
+        <v>0.82595360544068663</v>
       </c>
       <c r="R19" s="0">
-        <v>0.56280544714728453</v>
+        <v>0.72216897486564513</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.61532564114832933</v>
+        <v>0.88699716393286177</v>
       </c>
       <c r="U19" s="0">
-        <v>0.6455204232336712</v>
+        <v>0.72622316098563311</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>0.6917112062339773</v>
+        <v>0.93031775678043394</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.63821081034464289</v>
+        <v>0.82606071714919538</v>
       </c>
       <c r="S20" s="0">
         <v>0.88699716393286177</v>
@@ -4105,7 +4105,7 @@
         <v>0.84190048220305858</v>
       </c>
       <c r="V20" s="0">
-        <v>0.56471722735886543</v>
+        <v>0.70805776168685719</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0.51121586316773948</v>
+        <v>0.60661264721659136</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0.72622316098563311</v>
       </c>
       <c r="T21" s="0">
-        <v>0.6456156148572878</v>
+        <v>0.84190048220305858</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.65072029690547928</v>
+        <v>0.88135783774130549</v>
       </c>
       <c r="V23" s="0">
-        <v>0.64389098996946403</v>
+        <v>0.86088596908055803</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0.80820376435728847</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.78266478928010264</v>
+        <v>0.90130560059446463</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,16 +4929,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.5567592684880649</v>
+        <v>0.73133663313606867</v>
       </c>
       <c r="W24" s="0">
-        <v>0.6886657405096932</v>
+        <v>0.80820376435728847</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.61392427080794731</v>
+        <v>0.99739590685182111</v>
       </c>
       <c r="Z24" s="0">
         <v>0.92237537760980737</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.57488779157786007</v>
+        <v>0.70761930348990942</v>
       </c>
       <c r="AA25" s="0">
         <v>0.75330945699103558</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.84975619510817912</v>
+        <v>0.92237537760980737</v>
       </c>
       <c r="Y26" s="0">
         <v>0.70761930348990942</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0.57818797720853909</v>
+        <v>0.63514680505638643</v>
       </c>
     </row>
     <row r="27">
@@ -5556,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.52638058828491507</v>
+        <v>0.75330945699103558</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.95270449740916252</v>
+        <v>0.97997326339831414</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0.89345296218216619</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.66663861396601021</v>
+        <v>0.79630293788529483</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="0">
-        <v>0.7701354372387601</v>
+        <v>0.99031309130410627</v>
       </c>
       <c r="S28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.76149815922014019</v>
+        <v>0.89345296218216619</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.63837007654023803</v>
+        <v>0.68223902156791782</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.65057023388677027</v>
+        <v>0.97354279412868627</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0.65946783627148031</v>
+        <v>0.82453856559266203</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.56127327530911875</v>
+        <v>0.7822177638907426</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.55645678268028775</v>
+        <v>0.67139363662681206</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.52372454981324923</v>
+        <v>0.65553528334124345</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.62387595576957</v>
+        <v>0.92803643494449151</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.70464620259127331</v>
+        <v>0.76530985462116985</v>
       </c>
       <c r="AH32" s="0">
         <v>0.79662372024757044</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.60314634494255182</v>
+        <v>0.92439249344571572</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.63381594755966042</v>
+        <v>0.813721992789602</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.79336713459240615</v>
+        <v>0.79662372024757044</v>
       </c>
       <c r="AG34" s="0">
         <v>0.92439249344571572</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0.52642796532147795</v>
+        <v>0.86149170568504285</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0.813721992789602</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.77757337816504668</v>
+        <v>0.85358708561320407</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="BD35" s="0">
-        <v>0.57379045894667791</v>
+        <v>0.9650919400292941</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.53678052834600065</v>
+        <v>0.97670505172092792</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>0.55840334765217037</v>
+        <v>0.94572242805476259</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7649,16 +7649,16 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.66562418203806006</v>
+        <v>0.74324140698596119</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.51126327598834564</v>
+        <v>0.85459500218770379</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.53496186007695368</v>
+        <v>0.84268981671079968</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0.84877406955992862</v>
+        <v>0.85542970316889733</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.64752593053895346</v>
+        <v>0.69498478526588259</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0.88496336027172473</v>
+        <v>0.9787522658676282</v>
       </c>
     </row>
     <row r="39">
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="0">
-        <v>0.70948317835894104</v>
+        <v>0.89456117994205209</v>
       </c>
       <c r="AH39" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.72129219624946594</v>
+        <v>0.96554568291360066</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.50433486050522802</v>
+        <v>0.71471198051966534</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8694,13 +8694,13 @@
         <v>0.71471198051966534</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.55697014223767982</v>
+        <v>0.98041259761070343</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.64893784132402355</v>
+        <v>0.77698063169542997</v>
       </c>
       <c r="AR42" s="0">
         <v>0.82807666247603473</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0.57720293532671973</v>
+        <v>0.76478472193678049</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>0.52699738008014974</v>
+        <v>0.95076580913580788</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>0.79492134302630402</v>
+        <v>0.95522869597772808</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.70672253956210129</v>
+        <v>0.823127290856706</v>
       </c>
       <c r="AP43" s="0">
         <v>0.77698063169542997</v>
@@ -8912,7 +8912,7 @@
         <v>0.78299406345503086</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.61822238227090542</v>
+        <v>0.85574572542465077</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.8069610664236303</v>
+        <v>0.82807666247603473</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.69802723692169399</v>
+        <v>0.78299406345503086</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.60375935648623213</v>
+        <v>0.96362102581137909</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.58166041329344664</v>
+        <v>0.92699137092526762</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.66652843960789265</v>
+        <v>0.94248361230242994</v>
       </c>
       <c r="AU45" s="0">
         <v>0.76937192501929275</v>
@@ -9539,7 +9539,7 @@
         <v>0.98677564083008718</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.52605280895280337</v>
+        <v>0.63411160145046086</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.68893600397804988</v>
+        <v>0.76937192501929275</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.76231870842197291</v>
+        <v>0.98677564083008718</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.52160755122664959</v>
+        <v>0.68279524820257287</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="0">
-        <v>0.79981081052323977</v>
+        <v>0.8539461082645311</v>
       </c>
       <c r="AL48" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.58543367701199478</v>
+        <v>0.86060584509746307</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0.6429951188603158</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.67760024759991611</v>
+        <v>0.71341556693495756</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10366,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.53203451815257452</v>
+        <v>0.6429951188603158</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.72733203469710894</v>
+        <v>0.82694533720475882</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.54833840586546223</v>
+        <v>0.70802970914185803</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.59426845543197859</v>
+        <v>0.64123794914225773</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0.70802970914185803</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.60739053029350365</v>
+        <v>0.85157023808742882</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.53707182874333093</v>
+        <v>0.70047811700970386</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>0.51557459048862975</v>
+        <v>0.51720260032968501</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.52031839631651755</v>
+        <v>0.86942522457044213</v>
       </c>
       <c r="AZ53" s="0">
         <v>0.70047811700970386</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.56753425543262059</v>
+        <v>0.74567687142036942</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.84314274087325103</v>
+        <v>0.93673785290522349</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.55864151596187372</v>
+        <v>0.6312430020539006</v>
       </c>
       <c r="BE55" s="0">
         <v>0.86959165422353268</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.72834069590842221</v>
+        <v>0.86959165422353268</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.69568479811132355</v>
+        <v>0.87521823345923877</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.7652410246812702</v>
+        <v>0.89877788693486793</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.70867621330468755</v>
+        <v>0.88268205564619628</v>
       </c>
       <c r="BE58" s="0">
         <v>0.89877788693486793</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.62790157065639796</v>
+        <v>0.94489083890559711</v>
       </c>
       <c r="BH58" s="0">
         <v>0.97027991569482386</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0.80713192165588632</v>
+        <v>0.86819037827862955</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0.80174384005303034</v>
+        <v>0.8743955675273688</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12453,16 +12453,16 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.77301944795430866</v>
+        <v>0.97027991569482386</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.5624894873577142</v>
+        <v>0.70890245452385325</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.61031200645934081</v>
+        <v>0.9930800041197998</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.52455322719001241</v>
+        <v>0.60239491834565095</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.8610657454149393</v>
+        <v>0.89826722009833193</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.52318992939531273</v>
+        <v>0.96785843958027629</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.64772777998416164</v>
+        <v>0.88282375501624277</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.79683667610288389</v>
+        <v>0.93260502049589133</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.77893362775554942</v>
+        <v>0.80653593475976926</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.68511835062050408</v>
+        <v>0.8141706126295376</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,10 +13716,10 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.53001714950102974</v>
+        <v>0.55068170762639546</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.63295749799626955</v>
+        <v>0.88820536520189997</v>
       </c>
     </row>
     <row r="67">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0.6016082613061553</v>
+        <v>0.78330067946174653</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.88954234464256587</v>
+        <v>0.90898041826470211</v>
       </c>
     </row>
     <row r="68">
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>0.58877557675428482</v>
+        <v>0.76133676504319614</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
